--- a/data/income_statement/3digits/total/712_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/712_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>712-Technical testing and analysis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>712-Technical testing and analysis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2147813.90517</v>
@@ -962,31 +868,36 @@
         <v>3015520.40456</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3546320.99115</v>
+        <v>3546615.32268</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4067781.682430001</v>
+        <v>4068402.42333</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4700729.84993</v>
+        <v>4765782.46634</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5403247.30276</v>
+        <v>5415663.05412</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6129040.77047</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7561919.91909</v>
+        <v>7569169.08877</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8894123.44224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8938315.783919999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12074599.811</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1999017.2918</v>
@@ -1001,31 +912,36 @@
         <v>2753073.37593</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3239088.44992</v>
+        <v>3239382.09379</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3717931.622359999</v>
+        <v>3718547.86286</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4406262.773860001</v>
+        <v>4436022.913520001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5031168.37076</v>
+        <v>5041473.87149</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>5662139.099450001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6819311.43261</v>
+        <v>6826105.925860001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8053865.832020001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8096231.33659</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10945994.046</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>112149.28595</v>
@@ -1046,31 +962,36 @@
         <v>276346.48469</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>268126.43578</v>
+        <v>302709.70875</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>331841.69661</v>
+        <v>332992.1196</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>414543.32956</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>668391.39857</v>
+        <v>668397.8985700001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>723910.39455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>724591.37067</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>913965.124</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>36647.32741999999</v>
+        <v>36647.32742</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>38814.14183000001</v>
+        <v>38814.14183</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>40458.83644</v>
@@ -1079,31 +1000,36 @@
         <v>48189.91753</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>57684.69779999999</v>
+        <v>57685.38546</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>73503.57538000001</v>
+        <v>73508.07578</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>26340.64029</v>
+        <v>27049.84407</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>40237.23539</v>
+        <v>41197.06303</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>52358.34146</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>74217.08791</v>
+        <v>74665.26434000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>116347.21567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>117493.07666</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>214640.641</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>14936.38426</v>
@@ -1118,31 +1044,36 @@
         <v>21951.98477</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>10402.30387</v>
+        <v>10402.30487</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>16019.06693</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>27971.85022</v>
+        <v>28046.84399</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25990.08668</v>
+        <v>26010.17768</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>39823.49377</v>
+        <v>39823.49376999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>49722.1782</v>
+        <v>49723.7382</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>66978.66499999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>67061.92142</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>96393.39</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>10816.60724</v>
@@ -1157,16 +1088,16 @@
         <v>17329.07938</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5063.87787</v>
+        <v>5063.877869999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9443.998280000002</v>
+        <v>9443.99828</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>18760.11558</v>
+        <v>18809.52408</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>16595.25492</v>
+        <v>16615.34592</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>25406.82322</v>
@@ -1175,13 +1106,18 @@
         <v>37777.55622</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>52213.18362999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>52293.96499</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>75804.727</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3768.43789</v>
@@ -1196,31 +1132,36 @@
         <v>4288.32551</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4805.54531</v>
+        <v>4805.546310000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>5619.02653</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>7709.851779999999</v>
+        <v>7735.437049999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>7549.3026</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6595.782810000001</v>
+        <v>6595.78281</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8098.356400000001</v>
+        <v>8099.6564</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>10464.74105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10465.65865</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>15291.933</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>351.33913</v>
@@ -1238,7 +1179,7 @@
         <v>532.88069</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>956.04212</v>
+        <v>956.0421199999998</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1501.88286</v>
@@ -1247,19 +1188,24 @@
         <v>1845.52916</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>7820.887739999999</v>
+        <v>7820.88774</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3846.26558</v>
+        <v>3846.52558</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4300.74032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4302.29778</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5296.73</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2132877.52091</v>
@@ -1274,31 +1220,36 @@
         <v>2993568.41979</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3535918.68728</v>
+        <v>3536213.01781</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4051762.615499999</v>
+        <v>4052383.3564</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4672757.999710001</v>
+        <v>4737735.622350001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5377257.21608</v>
+        <v>5389652.87644</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6089217.276700001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7512197.740889999</v>
+        <v>7519445.35057</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8827144.777240001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8871253.862500001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11978206.421</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1639659.45392</v>
@@ -1313,31 +1264,36 @@
         <v>2298941.23973</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2702093.86657</v>
+        <v>2702103.44412</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3093081.17244</v>
+        <v>3094049.94399</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3612374.9009</v>
+        <v>3641916.93111</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4214473.84326</v>
+        <v>4223070.96731</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4738661.87102</v>
+        <v>4738661.871019999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5795038.922590001</v>
+        <v>5798586.72392</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6765132.38102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6786274.586639999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9236214.254000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>5476.99875</v>
@@ -1358,7 +1314,7 @@
         <v>24750.82074</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>33943.49923</v>
+        <v>33989.77388</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>35276.14273</v>
@@ -1370,13 +1326,18 @@
         <v>75037.11757999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>90761.01013000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>91563.58529</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>177626.126</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>31256.50812</v>
@@ -1385,37 +1346,42 @@
         <v>53146.85923</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>54920.77184</v>
+        <v>54920.77183999999</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>162894.77542</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>98317.53536000001</v>
+        <v>98317.53535999999</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>108833.50888</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>185014.45593</v>
+        <v>185024.4536</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>228566.8382</v>
+        <v>229214.93639</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>236074.98537</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>355655.75561</v>
+        <v>357741.15557</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>287221.9005599999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>294625.55216</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1332292.188</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1602687.43852</v>
@@ -1430,31 +1396,36 @@
         <v>2114307.58826</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2587225.87415</v>
+        <v>2587235.4517</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2957959.52059</v>
+        <v>2958928.29214</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3390818.11061</v>
+        <v>3420303.8685</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3943055.98745</v>
+        <v>3951005.01331</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4430918.46025</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5360847.91092</v>
+        <v>5362242.75458</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6380074.557219999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6392987.11905</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7717311.835</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>238.50853</v>
@@ -1481,19 +1452,24 @@
         <v>7574.874879999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6276.210489999999</v>
+        <v>6276.21049</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3498.13848</v>
+        <v>3565.69619</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7074.91311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7098.33014</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8984.105</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>493218.06699</v>
@@ -1508,31 +1484,36 @@
         <v>694627.18006</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>833824.8207099999</v>
+        <v>834109.57369</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>958681.44306</v>
+        <v>958333.41241</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1060383.09881</v>
+        <v>1095818.69124</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1162783.37282</v>
+        <v>1166581.90913</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1350555.40568</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1717158.8183</v>
+        <v>1720858.62665</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2062012.39622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2084979.27586</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2741992.167</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>326289.92175</v>
@@ -1547,31 +1528,36 @@
         <v>405638.11915</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>457476.72358</v>
+        <v>457763.31727</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>513215.67874</v>
+        <v>513584.3316600001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>535509.6421599999</v>
+        <v>569081.9735999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>641553.21662</v>
+        <v>643368.77203</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>743088.33308</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>943554.21562</v>
+        <v>947146.0523899999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1112046.84544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1126391.70055</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1287623.063</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1533.00488</v>
@@ -1592,7 +1578,7 @@
         <v>7934.81435</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8698.21658</v>
+        <v>8859.66217</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>11080.48614</v>
@@ -1604,13 +1590,18 @@
         <v>17024.61409</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16666.70296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>20654.12437</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>23765.926</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>15802.0919</v>
@@ -1628,28 +1619,33 @@
         <v>25945.43712</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>33817.12632</v>
+        <v>33830.67352</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>43957.20929</v>
+        <v>46236.50801000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>50279.73538</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>65872.9382</v>
+        <v>65872.93819999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>87008.26388</v>
+        <v>87107.30071000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>101186.09789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>102894.61241</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>127258.965</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>308954.82497</v>
@@ -1664,31 +1660,36 @@
         <v>383405.22396</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>425069.07912</v>
+        <v>425355.6728100001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>471463.73807</v>
+        <v>471818.84379</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>482854.21629</v>
+        <v>513985.80342</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>580192.9951000001</v>
+        <v>582008.55051</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>664606.64489</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>839521.33765</v>
+        <v>843014.1375899999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>994194.0445899999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1002842.96377</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1136598.172</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>166928.14524</v>
@@ -1703,31 +1704,36 @@
         <v>288989.06091</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>376348.09713</v>
+        <v>376346.2564199999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>445465.76432</v>
+        <v>444749.08075</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>524873.4566499999</v>
+        <v>526736.71764</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>521230.1562</v>
+        <v>523213.1371</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>607467.0726000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>773604.60268</v>
+        <v>773712.57426</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>949965.5507799999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>958587.57531</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1454369.104</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>244870.98763</v>
@@ -1748,25 +1754,30 @@
         <v>355819.14386</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>476971.60639</v>
+        <v>498741.93006</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>421324.76546</v>
+        <v>421894.41541</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>583389.3513400001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>898414.6757500001</v>
+        <v>898439.8837799999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>779900.44174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>780778.06076</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>941673.509</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>6.88968</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>13582.28287</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3589.91</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>203.98048</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>95329.53266</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>21644.01087</v>
@@ -1865,25 +1886,30 @@
         <v>25552.01665</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>43338.28894999999</v>
+        <v>45423.80025000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>48522.90204000001</v>
+        <v>48726.29397000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>72754.17081</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>119099.16983</v>
+        <v>119099.26422</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>153435.14618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>153822.78843</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>131858.129</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10.59848</v>
@@ -1904,7 +1930,7 @@
         <v>1207.83489</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>392.14123</v>
+        <v>448.29508</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>382.57402</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>607.4778</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>9571.977000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3691.70195</v>
@@ -1931,7 +1962,7 @@
         <v>2602.68634</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3100.730839999999</v>
+        <v>3100.73084</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>3027.51664</v>
@@ -1943,25 +1974,30 @@
         <v>5806.98341</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>8818.66467</v>
+        <v>10760.54686</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11165.84394</v>
+        <v>11297.48158</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11447.97098</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>9735.958909999999</v>
+        <v>9735.958910000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>10667.19745</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>25610.623</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>227.00418</v>
@@ -1973,34 +2009,39 @@
         <v>310.69435</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>386.49986</v>
+        <v>386.4998600000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>457.0001600000001</v>
+        <v>457.00016</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>612.13545</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2219.7796</v>
+        <v>2228.78393</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>585.99242</v>
+        <v>588.33501</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>782.92375</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>888.01704</v>
+        <v>888.0170400000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>2868.41318</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3681.251</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>209069.00801</v>
@@ -2021,25 +2062,30 @@
         <v>285297.42819</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>299984.92249</v>
+        <v>317662.6661500001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>285217.4849299999</v>
+        <v>285449.06172</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>355980.66364</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>620881.7294</v>
+        <v>620884.6726500001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>413185.88775</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>413446.2528</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>662272.679</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10017.79398</v>
@@ -2129,7 +2185,7 @@
         <v>19549.82657</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>28284.68598000001</v>
+        <v>28284.68598</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>29599.89742</v>
@@ -2138,25 +2194,30 @@
         <v>29072.96545</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>46181.13189000001</v>
+        <v>46181.16022999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>36072.46618</v>
+        <v>36073.16718</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>66952.90677</v>
+        <v>66952.90677000002</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>87124.86447999999</v>
+        <v>87147.03486999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>90221.20384999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>90450.81556999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>105088.94</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>195168.63144</v>
@@ -2174,31 +2235,36 @@
         <v>280036.9832</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>340178.5086800001</v>
+        <v>340179.91857</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>402092.30935</v>
+        <v>415519.5801</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>339862.70851</v>
+        <v>340288.60479</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>449184.55087</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>688478.0786400001</v>
+        <v>688479.4790000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>583645.4225799999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>583773.3398499999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>695055.346</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2416.72673</v>
+        <v>2416.726729999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>147.87007</v>
@@ -2213,10 +2279,10 @@
         <v>181.76162</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>294.2554</v>
+        <v>294.2554000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>190.45361</v>
+        <v>192.95325</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>238.30681</v>
@@ -2225,16 +2291,21 @@
         <v>38.904</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>308.09095</v>
+        <v>308.09185</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1830.23773</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1835.96111</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1875.685</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2673.84764</v>
@@ -2243,22 +2314,22 @@
         <v>3673.3762</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4791.793060000001</v>
+        <v>4791.79306</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>8389.874600000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9543.924420000001</v>
+        <v>9543.924419999999</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>10195.39856</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13315.89212</v>
+        <v>16222.99809</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>28459.52848</v>
+        <v>28685.75388</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>41503.64649</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>22931.62818</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>16258.529</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.8038500000000001</v>
@@ -2282,7 +2358,7 @@
         <v>320.95721</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>548.6363200000001</v>
+        <v>548.63632</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>26.32618</v>
@@ -2297,7 +2373,7 @@
         <v>3.77511</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1650.9252</v>
+        <v>1652.74116</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>17548.61317</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>281.93917</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>642.867</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>189562.86937</v>
@@ -2330,28 +2411,33 @@
         <v>257021.46937</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>322591.58991</v>
+        <v>322592.9998</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>379763.07675</v>
+        <v>390280.74189</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>303174.87881</v>
+        <v>303367.6503</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>373881.73989</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>643003.82537</v>
+        <v>643005.22482</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>464025.23201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>464147.4248100001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>641403.6189999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.5649</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>141.9615</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>78.503</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>513.81895</v>
@@ -2438,7 +2534,7 @@
         <v>6883.02118</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4748.347059999999</v>
+        <v>4748.347060000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>2143.59348</v>
@@ -2453,103 +2549,118 @@
         <v>8817.734910000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6336.835200000001</v>
+        <v>6341.918630000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>16194.55553</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>21965.37446</v>
+        <v>21965.37447</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>94434.42399000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>94434.42508000002</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>34796.143</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>102360.78265</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>78941.39777999998</v>
+        <v>78941.39778</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>75731.52978</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>76145.95777000001</v>
+        <v>76145.95776999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>82917.88106999999</v>
+        <v>82917.88107</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>83591.25366</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>112437.06283</v>
+        <v>113340.40861</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>118998.68864</v>
+        <v>119053.77736</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>133037.24744</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>186224.04964</v>
+        <v>186224.91331</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>146760.0537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>146817.60588</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>128549.968</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>75020.27265</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>61893.13147</v>
+        <v>61893.13147000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>63285.97415000001</v>
+        <v>63285.97415</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>63278.99256</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>70268.31516999999</v>
+        <v>70268.31517</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>73393.33326</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>100540.47556</v>
+        <v>101443.82134</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>109835.858</v>
+        <v>109890.94672</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>128023.77126</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>181844.2533</v>
+        <v>181845.11697</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>137565.79757</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>137623.34975</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>118026.247</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>27340.51</v>
+        <v>27340.50999999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>17048.26631</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>9194.256130000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>10523.721</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>114269.71878</v>
@@ -2600,31 +2716,36 @@
         <v>253328.00786</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>284665.34912</v>
+        <v>284663.50841</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>377515.14584</v>
+        <v>376797.05238</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>487315.69086</v>
+        <v>496618.65899</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>483693.52451</v>
+        <v>485765.17036</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>608634.62563</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>797317.1501500001</v>
+        <v>797448.06573</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>999460.51624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1008774.69034</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1572437.299</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>8751.710359999999</v>
@@ -2642,40 +2763,45 @@
         <v>13244.22142</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>22804.80702</v>
+        <v>22828.37056</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>28686.71835</v>
+        <v>29306.39667</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>30999.46078</v>
+        <v>31270.39209</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>39533.66606</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>47149.1541</v>
+        <v>47157.42673000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>70260.52512000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>70486.71231</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>106285.107</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2868.00677</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>930.23736</v>
+        <v>930.2373599999999</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>491.0058700000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>687.36172</v>
+        <v>687.3617200000001</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>109.63819</v>
@@ -2696,13 +2822,18 @@
         <v>532.8420500000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1005.10098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1005.10097</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>27176.384</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>5883.70359</v>
@@ -2720,28 +2851,33 @@
         <v>13134.58323</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>21652.60989</v>
+        <v>21676.17343</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>28282.48425</v>
+        <v>28902.16257</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>28732.28727</v>
+        <v>29003.21858</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>38210.24993</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>46616.31205</v>
+        <v>46624.58468</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>69255.42414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>69481.61134</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>79108.723</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>11079.05635</v>
@@ -2750,37 +2886,42 @@
         <v>8885.78859</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>42719.57482000001</v>
+        <v>42719.57482</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8865.831110000001</v>
+        <v>8865.831109999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8322.244809999998</v>
+        <v>8322.919820000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>50702.97765</v>
+        <v>50740.59221</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16427.90818</v>
+        <v>18054.81663</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>55020.71961</v>
+        <v>54888.84631</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>31367.10507</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>67450.53638999999</v>
+        <v>67453.85584</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>64517.10666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>64897.70937</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>64922.026</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>42.62924</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>420.08753</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>430.238</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1909.70532</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>4641.907980000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>10575.156</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>9126.72179</v>
@@ -2867,37 +3018,42 @@
         <v>6516.07911</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>40470.43337000001</v>
+        <v>40470.43337</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>6585.060570000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6754.334199999999</v>
+        <v>6755.009210000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>48508.54063</v>
+        <v>48546.15519</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>14508.4459</v>
+        <v>16135.35435</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>51188.36395</v>
+        <v>51056.49065000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>28369.22718</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>63696.70319</v>
+        <v>63700.02264</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>59455.11115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>59835.71385999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>53916.632</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>111942.37279</v>
@@ -2906,37 +3062,42 @@
         <v>123909.21041</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>92737.77197999999</v>
+        <v>92737.77198</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>260236.89286</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>289587.32573</v>
+        <v>289584.81001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>349616.9752100001</v>
+        <v>348884.83073</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>499574.50103</v>
+        <v>507870.2390300001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>459672.26568</v>
+        <v>462146.71614</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>616801.1866200001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>777015.76786</v>
+        <v>777151.63662</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1005203.9347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1014363.69328</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1613800.38</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>14493.02377</v>
@@ -2951,34 +3112,39 @@
         <v>34159.58018</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>49689.24448</v>
+        <v>49690.13426000001</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>76136.23679000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>90128.31604000001</v>
+        <v>92350.78881</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>90609.58983999999</v>
+        <v>90669.30093000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>123712.72119</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>189743.81716</v>
+        <v>189937.43854</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>244207.34687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>245725.25949</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>357924.613</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>97449.34901999999</v>
+        <v>97449.34902000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>105743.37636</v>
@@ -2990,28 +3156,31 @@
         <v>226077.31268</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>239898.08125</v>
+        <v>239894.67575</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>273480.73842</v>
+        <v>272748.59394</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>409446.1849899999</v>
+        <v>415519.4502200001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>369062.67584</v>
+        <v>371477.4152100001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>493088.46543</v>
+        <v>493088.4654299999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>587271.9506999999</v>
+        <v>587214.1980799999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>760996.5878300001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>768638.43379</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1255875.767</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>488</v>
@@ -3044,28 +3216,31 @@
         <v>1527</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1424</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1514</v>
+        <v>1560</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1701</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>